--- a/model_templates/ark.BDMMetadataFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.BDMMetadataFileAnnotationTemplate.xlsx
@@ -10436,8 +10436,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -10446,8 +10446,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -37700,12 +37700,12 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H1000">
+  <conditionalFormatting sqref="G1:G1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$E1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
+  <conditionalFormatting sqref="H1:H1000">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$E1 = "metadata"</formula>
     </cfRule>

--- a/model_templates/ark.BDMMetadataFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.BDMMetadataFileAnnotationTemplate.xlsx
@@ -10436,8 +10436,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -10446,8 +10446,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -37700,12 +37700,12 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1000">
+  <conditionalFormatting sqref="H1:H1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$E1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
+  <conditionalFormatting sqref="G1:G1000">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$E1 = "metadata"</formula>
     </cfRule>

--- a/model_templates/ark.BDMMetadataFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.BDMMetadataFileAnnotationTemplate.xlsx
@@ -47767,13 +47767,13 @@
       <formula>$F1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$E1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$E1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.BDMMetadataFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.BDMMetadataFileAnnotationTemplate.xlsx
@@ -47756,13 +47756,13 @@
       <formula>$E1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="H1:H1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
